--- a/data/manual/inativos.xlsx
+++ b/data/manual/inativos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>state</t>
   </si>
@@ -62,12 +62,6 @@
     <t>se</t>
   </si>
   <si>
-    <t>report not available at SISTN/SICONFI</t>
-  </si>
-  <si>
-    <t>non-standard report and value in thousands</t>
-  </si>
-  <si>
     <t>non-standard report</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>ba</t>
   </si>
   <si>
-    <t>can't parse page</t>
-  </si>
-  <si>
     <t>am</t>
   </si>
   <si>
@@ -105,6 +96,12 @@
   </si>
   <si>
     <t>zero reported</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
+  </si>
+  <si>
+    <t>parsing error</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,10 +460,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2008</v>
@@ -475,15 +472,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2009</v>
@@ -492,15 +489,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2010</v>
@@ -509,15 +506,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2012</v>
@@ -526,12 +523,12 @@
         <v>3901689435.9400001</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -543,12 +540,12 @@
         <v>1559411926.1900001</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -561,13 +558,13 @@
         <v>1682917735.74</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -579,7 +576,7 @@
         <v>1332851000</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -602,7 +599,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -614,7 +611,7 @@
         <v>1469649142.4000001</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
